--- a/View/products/sources.xlsx
+++ b/View/products/sources.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="217">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">nom</t>
+    <t xml:space="preserve">producteurs</t>
   </si>
   <si>
     <t xml:space="preserve">lieu </t>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">image</t>
   </si>
   <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Marianne DEPORTE et Benjamin GUINET </t>
   </si>
   <si>
@@ -115,15 +118,15 @@
     <t xml:space="preserve">PRODUITS</t>
   </si>
   <si>
+    <t xml:space="preserve">produits</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat</t>
   </si>
   <si>
     <t xml:space="preserve">sous-cat</t>
   </si>
   <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
     <t xml:space="preserve">origine</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">id-producteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prix</t>
   </si>
   <si>
     <t xml:space="preserve">prix au kilo</t>
@@ -517,6 +523,162 @@
   </si>
   <si>
     <t xml:space="preserve">25.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUS CATÉGORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sous-catégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id-catégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ail, oignons, échalote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">champignons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">courges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">légumes racines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">légumes verts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pommes de terre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aromates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brebis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruits rouges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruits secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raisins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toutes fleurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provence IGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">montagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATÉGORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">legumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fromages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prénom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raison sociale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vérifié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENTAIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id-user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id-produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RÉPONSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id-com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantité-produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix-unit-produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type-client</t>
   </si>
 </sst>
 </file>
@@ -527,7 +689,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -560,6 +722,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -626,7 +796,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -677,6 +847,26 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -756,19 +946,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57:G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -779,8 +969,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -793,13 +984,15 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -821,19 +1014,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -855,19 +1048,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -889,19 +1082,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -923,19 +1116,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -957,19 +1150,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -991,19 +1184,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1025,19 +1218,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1054,15 +1247,15 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1071,7 +1264,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1088,15 +1281,15 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1105,7 +1298,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1122,15 +1315,15 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1139,7 +1332,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1156,15 +1349,15 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1173,7 +1366,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1190,15 +1383,15 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1207,7 +1400,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1224,15 +1417,15 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1241,7 +1434,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1258,7 +1451,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1269,7 +1462,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1286,7 +1479,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1297,7 +1490,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1314,7 +1507,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1325,7 +1518,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1342,9 +1535,9 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1355,69 +1548,74 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>44</v>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,31 +1623,32 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>48</v>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,31 +1656,32 @@
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>48</v>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,31 +1689,32 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>57</v>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,685 +1722,1131 @@
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I26" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I27" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I28" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I29" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>11</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>13</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I34" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
         <v>15</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
         <v>16</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I36" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I37" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>18</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I38" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="J38" s="12" t="n">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12" t="n">
         <v>45056</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>19</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I39" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>20</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I40" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
         <v>21</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I41" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
         <v>22</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I42" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
         <v>23</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="H43" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I43" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
         <v>24</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I44" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
         <v>25</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I45" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9"/>
     </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A91:I91"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
